--- a/Documents/閩南語注音二式/鍵盤設計規格_台語方音.xlsx
+++ b/Documents/閩南語注音二式/鍵盤設計規格_台語方音.xlsx
@@ -1,63 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\閩南語注音二式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD112E0F-1A71-40D2-8BAF-50BECD6FCEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179CBA3-C9DB-4894-BFD6-0DA41F74B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{D4584AE3-17F5-47E7-8383-1F9AF4052C6B}"/>
-    <workbookView xWindow="38280" yWindow="-30" windowWidth="16440" windowHeight="28320" xr2:uid="{64922EA5-16CA-4981-9C99-6EF4509E5738}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="730" activeTab="1" xr2:uid="{D4584AE3-17F5-47E7-8383-1F9AF4052C6B}"/>
+    <workbookView minimized="1" xWindow="67590" yWindow="4455" windowWidth="28800" windowHeight="11295" xr2:uid="{64922EA5-16CA-4981-9C99-6EF4509E5738}"/>
   </bookViews>
   <sheets>
     <sheet name="注音編碼對照表" sheetId="12" r:id="rId1"/>
-    <sheet name="使用按鍵解析" sheetId="9" r:id="rId2"/>
-    <sheet name="RIME設定解析" sheetId="10" r:id="rId3"/>
-    <sheet name="注音符號表" sheetId="20" r:id="rId4"/>
-    <sheet name="注音符號按鍵" sheetId="17" r:id="rId5"/>
-    <sheet name="RIME【國際音標】" sheetId="22" r:id="rId6"/>
-    <sheet name="漢語拼音對照表" sheetId="24" r:id="rId7"/>
-    <sheet name="注音符號對照漢語拼音" sheetId="23" r:id="rId8"/>
-    <sheet name="注音符號對照漢語拼音【閩南語】" sheetId="25" r:id="rId9"/>
-    <sheet name="RIME對映編碼 (台語方音)" sheetId="1" r:id="rId10"/>
-    <sheet name="方音符號音節表" sheetId="21" r:id="rId11"/>
-    <sheet name="方音聲母" sheetId="13" r:id="rId12"/>
-    <sheet name="方音韻母" sheetId="14" r:id="rId13"/>
+    <sheet name="拼音系統互換對照表" sheetId="26" r:id="rId2"/>
+    <sheet name="使用按鍵解析" sheetId="9" r:id="rId3"/>
+    <sheet name="RIME設定解析" sheetId="10" r:id="rId4"/>
+    <sheet name="注音符號表" sheetId="20" r:id="rId5"/>
+    <sheet name="注音符號按鍵" sheetId="17" r:id="rId6"/>
+    <sheet name="RIME【國際音標】" sheetId="22" r:id="rId7"/>
+    <sheet name="漢語拼音對照表" sheetId="24" r:id="rId8"/>
+    <sheet name="注音符號對照漢語拼音" sheetId="23" r:id="rId9"/>
+    <sheet name="注音符號對照漢語拼音【閩南語】" sheetId="25" r:id="rId10"/>
+    <sheet name="RIME對映編碼 (台語方音)" sheetId="1" r:id="rId11"/>
+    <sheet name="方音符號音節表" sheetId="21" r:id="rId12"/>
+    <sheet name="方音聲母" sheetId="13" r:id="rId13"/>
+    <sheet name="方音韻母" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RIME設定解析!$Z$2:$AE$58</definedName>
-    <definedName name="方音符號" localSheetId="2">RIME設定解析!$W$3:$W$54</definedName>
-    <definedName name="方音符號" localSheetId="9">'RIME對映編碼 (台語方音)'!$U$3:$U$44</definedName>
-    <definedName name="方音符號" localSheetId="4">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RIME設定解析!$Z$2:$AE$58</definedName>
+    <definedName name="方音符號" localSheetId="3">RIME設定解析!$W$3:$W$54</definedName>
+    <definedName name="方音符號" localSheetId="10">'RIME對映編碼 (台語方音)'!$U$3:$U$44</definedName>
+    <definedName name="方音符號" localSheetId="5">#REF!</definedName>
     <definedName name="方音符號">[1]RIME編碼!$AA$3:$AA$45</definedName>
-    <definedName name="字典編碼" localSheetId="4">#REF!</definedName>
+    <definedName name="字典編碼" localSheetId="5">#REF!</definedName>
     <definedName name="字典編碼">[1]RIME編碼!$AB$3:$AB$45</definedName>
-    <definedName name="注音符號" localSheetId="2">RIME設定解析!$W$3:$W$54</definedName>
+    <definedName name="注音符號" localSheetId="3">RIME設定解析!$W$3:$W$54</definedName>
     <definedName name="注音符號">#REF!</definedName>
-    <definedName name="注音編碼" localSheetId="2">RIME設定解析!$V$3:$V$54</definedName>
-    <definedName name="注音編碼" localSheetId="1">[2]RIME設定解析!$W$3:$W$54</definedName>
+    <definedName name="注音編碼" localSheetId="3">RIME設定解析!$V$3:$V$54</definedName>
+    <definedName name="注音編碼" localSheetId="2">[2]RIME設定解析!$W$3:$W$54</definedName>
     <definedName name="注音編碼">#REF!</definedName>
-    <definedName name="拼音字母" localSheetId="2">RIME設定解析!$X$3:$X$54</definedName>
-    <definedName name="拼音字母" localSheetId="9">'RIME對映編碼 (台語方音)'!#REF!</definedName>
-    <definedName name="拼音字母" localSheetId="4">#REF!</definedName>
+    <definedName name="拼音字母" localSheetId="3">RIME設定解析!$X$3:$X$54</definedName>
+    <definedName name="拼音字母" localSheetId="10">'RIME對映編碼 (台語方音)'!#REF!</definedName>
+    <definedName name="拼音字母" localSheetId="5">#REF!</definedName>
     <definedName name="拼音字母">[1]RIME編碼!$AC$3:$AC$45</definedName>
-    <definedName name="按鍵編碼" localSheetId="2">RIME設定解析!$V$3:$V$54</definedName>
-    <definedName name="按鍵編碼" localSheetId="9">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
-    <definedName name="國際音標" localSheetId="9">'RIME對映編碼 (台語方音)'!#REF!</definedName>
-    <definedName name="鍵盤位置" localSheetId="2">RIME設定解析!$U$3:$U$54</definedName>
-    <definedName name="鍵盤位置" localSheetId="9">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
-    <definedName name="鍵盤位置" localSheetId="4">#REF!</definedName>
+    <definedName name="按鍵編碼" localSheetId="3">RIME設定解析!$V$3:$V$54</definedName>
+    <definedName name="按鍵編碼" localSheetId="10">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
+    <definedName name="國際音標" localSheetId="10">'RIME對映編碼 (台語方音)'!#REF!</definedName>
+    <definedName name="鍵盤位置" localSheetId="3">RIME設定解析!$U$3:$U$54</definedName>
+    <definedName name="鍵盤位置" localSheetId="10">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
+    <definedName name="鍵盤位置" localSheetId="5">#REF!</definedName>
     <definedName name="鍵盤位置">[1]RIME編碼!$W$3:$W$40</definedName>
-    <definedName name="鍵盤按鍵" localSheetId="2">RIME設定解析!$U$3:$U$54</definedName>
-    <definedName name="鍵盤按鍵" localSheetId="1">[2]RIME設定解析!$U$3:$U$54</definedName>
+    <definedName name="鍵盤按鍵" localSheetId="3">RIME設定解析!$U$3:$U$54</definedName>
+    <definedName name="鍵盤按鍵" localSheetId="2">[2]RIME設定解析!$U$3:$U$54</definedName>
     <definedName name="鍵盤按鍵">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1972">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7325,6 +7326,134 @@
     <t>ln</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>台語音標
+TLPA+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>台羅拼音
+TL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>閩拼方案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+BP</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白話字
+POJ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>chh</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>oe</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>oa</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ek</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ik</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iek</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄥ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/iŋ/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆻ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ik/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>德</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄚ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ue/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ua/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㆤ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7335,7 +7464,7 @@
     <numFmt numFmtId="177" formatCode="General;;"/>
     <numFmt numFmtId="178" formatCode="&quot;[ &quot;@&quot; ]&quot;"/>
   </numFmts>
-  <fonts count="221">
+  <fonts count="225">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -7371,6 +7500,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -7444,6 +7574,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -7553,6 +7684,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -7681,6 +7813,7 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -7707,6 +7840,7 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -7726,6 +7860,7 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -7774,6 +7909,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -8297,6 +8433,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="36"/>
@@ -8511,6 +8648,7 @@
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -8639,6 +8777,7 @@
       <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Iansui 094"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -8824,6 +8963,36 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="字咍源雲明體 台羅方音 L"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -8977,7 +9146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -9410,6 +9579,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3C9FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3C9FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9418,7 +9746,7 @@
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="584">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -10809,9 +11137,78 @@
     <xf numFmtId="0" fontId="206" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="13" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="13" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="147" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10830,6 +11227,18 @@
     <xf numFmtId="0" fontId="56" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="187" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10848,86 +11257,89 @@
     <xf numFmtId="9" fontId="56" fillId="14" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="219" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="211" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="198" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="13" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="13" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="197" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="214" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="223" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14319,8 +14731,8 @@
   </sheetPr>
   <dimension ref="B1:S87"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="1">
       <selection activeCell="F13" sqref="F13"/>
@@ -15228,7 +15640,7 @@
       <c r="E22" s="287" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="540" t="s">
+      <c r="F22" s="520" t="s">
         <v>1595</v>
       </c>
       <c r="G22" s="289" t="s">
@@ -15304,7 +15716,7 @@
         <v>247</v>
       </c>
       <c r="H24" s="358" t="s">
-        <v>58</v>
+        <v>1965</v>
       </c>
       <c r="I24" s="358" t="s">
         <v>58</v>
@@ -15468,7 +15880,7 @@
         <v>194</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>56</v>
+        <v>1964</v>
       </c>
       <c r="E28" s="440" t="s">
         <v>170</v>
@@ -15567,7 +15979,7 @@
         <v>285</v>
       </c>
       <c r="I30" s="428" t="s">
-        <v>61</v>
+        <v>1907</v>
       </c>
       <c r="J30" s="237" t="s">
         <v>376</v>
@@ -17289,6 +17701,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58003326-053E-43D8-9401-43042FD64276}">
+  <dimension ref="B1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="32.25"/>
+  <cols>
+    <col min="1" max="1" width="2.296875" style="495" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="494" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="496" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="496" customWidth="1"/>
+    <col min="5" max="8" width="22.59765625" style="496" customWidth="1"/>
+    <col min="9" max="9" width="30" style="496" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="495"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" customHeight="1"/>
+    <row r="2" spans="2:9" s="535" customFormat="1" ht="26.25" thickBot="1">
+      <c r="B2" s="533" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="533" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D2" s="533" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E2" s="534" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F2" s="534" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G2" s="533" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H2" s="533" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I2" s="534" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B3" s="530" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="497" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D3" s="521" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E3" s="497" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="497" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="497" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="497" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="497"/>
+    </row>
+    <row r="4" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B4" s="531" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C4" s="518" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D4" s="522" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E4" s="518" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F4" s="518" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="523" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H4" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B5" s="530" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="497" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D5" s="521" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E5" s="497" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="497" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="497" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="497" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="497"/>
+    </row>
+    <row r="6" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B6" s="530" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="497" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D6" s="521" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E6" s="497" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="497" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="529" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H6" s="497" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="497"/>
+    </row>
+    <row r="7" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B7" s="532" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C7" s="524" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D7" s="526" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E7" s="524" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F7" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="524" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I7" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B8" s="530" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="497" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D8" s="521" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E8" s="497" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="497" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="497" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H8" s="497" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="497"/>
+    </row>
+    <row r="9" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B9" s="530" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="497" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D9" s="521" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E9" s="497" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="497" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="497" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="497" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="497"/>
+    </row>
+    <row r="10" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B10" s="530" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="497" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D10" s="521" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E10" s="497" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="497" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="529" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H10" s="497" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="497"/>
+    </row>
+    <row r="11" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B11" s="530" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="497" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D11" s="521" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E11" s="497" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="497" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="497" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="497" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="497"/>
+    </row>
+    <row r="12" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B12" s="530" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="497" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D12" s="521" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E12" s="497" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="497" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="497" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="497" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="497"/>
+    </row>
+    <row r="13" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B13" s="531" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C13" s="518" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D13" s="522" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E13" s="518" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F13" s="518" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="523" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H13" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B14" s="530" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="497" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D14" s="521" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E14" s="497" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="497" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="497" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" s="497" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="497"/>
+    </row>
+    <row r="15" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B15" s="531" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="518" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D15" s="522" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E15" s="518" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="518" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="529" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H15" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B16" s="530" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="497" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D16" s="521" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E16" s="497" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="497" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="497" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="497" t="s">
+        <v>272</v>
+      </c>
+      <c r="I16" s="497"/>
+    </row>
+    <row r="17" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B17" s="530" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="497" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D17" s="521" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E17" s="497" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F17" s="497" t="s">
+        <v>474</v>
+      </c>
+      <c r="G17" s="497" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H17" s="497" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="497"/>
+    </row>
+    <row r="18" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B18" s="531" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C18" s="518" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D18" s="522" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E18" s="518" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F18" s="518" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="523" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H18" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B19" s="530" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="497" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D19" s="521" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E19" s="497" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F19" s="497" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="497" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H19" s="497" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="497"/>
+    </row>
+    <row r="20" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B20" s="530" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="497" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D20" s="521" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E20" s="497" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F20" s="497" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="497" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H20" s="497" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="497"/>
+    </row>
+    <row r="21" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B21" s="532" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C21" s="524" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D21" s="526" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="524" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="524" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I21" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B22" s="532" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C22" s="524" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D22" s="526" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="524" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F22" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="524" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I22" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B23" s="532" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C23" s="524" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D23" s="526" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="524" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F23" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="524" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I23" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B24" s="532" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C24" s="524" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D24" s="526" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="524" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="524" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I24" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B25" s="530" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="497" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D25" s="521" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E25" s="497" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F25" s="497" t="s">
+        <v>474</v>
+      </c>
+      <c r="G25" s="497" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H25" s="497" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="497"/>
+    </row>
+    <row r="26" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B26" s="531" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="517" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D26" s="527" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E26" s="518" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F26" s="518" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="523" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H26" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B27" s="530" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="497" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D27" s="521" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E27" s="497" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F27" s="497" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="497" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H27" s="497" t="s">
+        <v>223</v>
+      </c>
+      <c r="I27" s="497"/>
+    </row>
+    <row r="28" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B28" s="530" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="497" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D28" s="521" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E28" s="497" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="497" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="497" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="497" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="497"/>
+    </row>
+    <row r="29" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B29" s="530" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="497" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D29" s="521" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E29" s="497" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="497" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="497" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="497" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="497"/>
+    </row>
+    <row r="30" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B30" s="531" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C30" s="517" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D30" s="522" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E30" s="518" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="518" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="523" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H30" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B31" s="530" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="497" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D31" s="521" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E31" s="497" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="497" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="497" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="497" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="497"/>
+    </row>
+    <row r="32" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B32" s="531" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C32" s="517" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D32" s="522" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E32" s="518" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F32" s="518" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G32" s="523" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H32" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B33" s="530" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="497" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D33" s="521" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E33" s="497" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F33" s="497" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="497" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="497" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" s="497"/>
+    </row>
+    <row r="34" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B34" s="532" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" s="524" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D34" s="526" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E34" s="524" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="525"/>
+      <c r="G34" s="525"/>
+      <c r="H34" s="524" t="s">
+        <v>234</v>
+      </c>
+      <c r="I34" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B35" s="530" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C35" s="497" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D35" s="521" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E35" s="497" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="497" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="497" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="497" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="497"/>
+    </row>
+    <row r="36" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B36" s="531" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C36" s="517" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D36" s="522" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E36" s="518" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="518" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="523" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H36" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B37" s="530" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="497" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D37" s="521" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E37" s="497" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="497" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="497" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="497" t="s">
+        <v>235</v>
+      </c>
+      <c r="I37" s="497"/>
+    </row>
+    <row r="38" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B38" s="531" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C38" s="517" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D38" s="522" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E38" s="518" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="518" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="523" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H38" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B39" s="532" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C39" s="524" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D39" s="526" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E39" s="524" t="s">
+        <v>513</v>
+      </c>
+      <c r="F39" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="524" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I39" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B40" s="530" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="497" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D40" s="521" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E40" s="497" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="497" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="497" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H40" s="497" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I40" s="497"/>
+    </row>
+    <row r="41" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B41" s="531" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C41" s="517" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D41" s="522" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E41" s="518" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="518" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="523" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H41" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B42" s="532" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C42" s="524" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D42" s="526" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E42" s="524" t="s">
+        <v>510</v>
+      </c>
+      <c r="F42" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="524" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I42" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B43" s="530" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="497" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D43" s="521" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E43" s="497" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="497" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="497" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="497" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="497"/>
+    </row>
+    <row r="44" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B44" s="530" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="497" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D44" s="521" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E44" s="497" t="s">
+        <v>523</v>
+      </c>
+      <c r="F44" s="497" t="s">
+        <v>523</v>
+      </c>
+      <c r="G44" s="497" t="s">
+        <v>523</v>
+      </c>
+      <c r="H44" s="497" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I44" s="497"/>
+    </row>
+    <row r="45" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B45" s="530" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="497" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D45" s="521" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E45" s="497" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="497" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="497" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="497" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="497"/>
+    </row>
+    <row r="46" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B46" s="530" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="497" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D46" s="521" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E46" s="497" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F46" s="497" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G46" s="497" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H46" s="497" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I46" s="497"/>
+    </row>
+    <row r="47" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B47" s="532" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C47" s="524" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D47" s="526" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E47" s="524" t="s">
+        <v>507</v>
+      </c>
+      <c r="F47" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="525" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="524" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I47" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B48" s="530" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="497" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D48" s="521" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E48" s="497" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F48" s="497" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="529" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H48" s="497" t="s">
+        <v>1833</v>
+      </c>
+      <c r="I48" s="516" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B49" s="531" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C49" s="517" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D49" s="522" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E49" s="518" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="518" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="523" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H49" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B50" s="530" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="497" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D50" s="521" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E50" s="528" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F50" s="497" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="497" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="497" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I50" s="516" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B51" s="531" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C51" s="517" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D51" s="522" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E51" s="523" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F51" s="518" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="523" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H51" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="519" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B52" s="532" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C52" s="524" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D52" s="526" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E52" s="524" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F52" s="525" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="525"/>
+      <c r="H52" s="524" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I52" s="524" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B53" s="531" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C53" s="517" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D53" s="522" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E53" s="523" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="518" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="523" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="519" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B54" s="531" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C54" s="517" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D54" s="522" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E54" s="523" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="518" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="523" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="519" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B55" s="531" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C55" s="517" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D55" s="522" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E55" s="523" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="518" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="523" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="519" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B56" s="531" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="517" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D56" s="522" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E56" s="523" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="518" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="523" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="519" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="59.25" thickBot="1">
+      <c r="B57" s="531" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="517" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D57" s="522" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E57" s="523" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="518" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="523" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="523" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="519" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB83FFDB-DA3B-4DC3-9ABB-CC495E031F87}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -22167,7 +24005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBB708E-B1E5-4E1F-9257-F3ED28B412A3}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -25935,7 +27773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5264AD8-A487-4558-A467-9475A22FFA19}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -26097,7 +27935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957C941-707B-43B5-A2ED-6EBC07AA803C}">
   <dimension ref="B1:U8"/>
   <sheetViews>
@@ -26399,6 +28237,369 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05E07A7-AF78-4634-BDFF-5219D2D23CF1}">
+  <dimension ref="B1:K14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="32.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="2.296875" style="495" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="494" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="496" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" style="494" customWidth="1"/>
+    <col min="5" max="7" width="16.796875" style="496" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" style="496" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.796875" style="496" customWidth="1"/>
+    <col min="10" max="10" width="30" style="496" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.796875" style="495" collapsed="1"/>
+    <col min="12" max="16384" width="8.796875" style="495"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:10" s="535" customFormat="1" ht="54" thickBot="1">
+      <c r="B2" s="560" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="561" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D2" s="561" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E2" s="562" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F2" s="562" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G2" s="562" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H2" s="562" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I2" s="563" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J2" s="556" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="59.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B3" s="564" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C3" s="565" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D3" s="566" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E3" s="567"/>
+      <c r="F3" s="565" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="565"/>
+      <c r="H3" s="565" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I3" s="568" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J3" s="557" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="59.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B4" s="569" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="570" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D4" s="571" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E4" s="572"/>
+      <c r="F4" s="570" t="s">
+        <v>474</v>
+      </c>
+      <c r="G4" s="570"/>
+      <c r="H4" s="570" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I4" s="573" t="s">
+        <v>1939</v>
+      </c>
+      <c r="J4" s="558"/>
+    </row>
+    <row r="5" spans="2:10" ht="59.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B5" s="569" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="570" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D5" s="571" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E5" s="572"/>
+      <c r="F5" s="570" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="570"/>
+      <c r="H5" s="570" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I5" s="573" t="s">
+        <v>1941</v>
+      </c>
+      <c r="J5" s="558"/>
+    </row>
+    <row r="6" spans="2:10" ht="59.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B6" s="569" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="570" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D6" s="571" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E6" s="572"/>
+      <c r="F6" s="570" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="570"/>
+      <c r="H6" s="570" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I6" s="573" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J6" s="558"/>
+    </row>
+    <row r="7" spans="2:10" ht="59.25" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B7" s="564" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="574" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D7" s="575" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E7" s="576"/>
+      <c r="F7" s="565" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="565"/>
+      <c r="H7" s="565" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I7" s="568" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J7" s="557" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="98.25" customHeight="1" collapsed="1" thickBot="1">
+      <c r="B8" s="569" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="570" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D8" s="582" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E8" s="570" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F8" s="570" t="s">
+        <v>474</v>
+      </c>
+      <c r="G8" s="580" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H8" s="570" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I8" s="573" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J8" s="558"/>
+    </row>
+    <row r="9" spans="2:10" ht="98.25" customHeight="1" thickBot="1">
+      <c r="B9" s="569" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="570" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D9" s="582" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E9" s="570" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F9" s="570" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="580" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H9" s="570" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I9" s="573" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J9" s="559"/>
+    </row>
+    <row r="10" spans="2:10" ht="98.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="B10" s="569" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="570" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D10" s="582" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E10" s="572"/>
+      <c r="F10" s="570" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="580"/>
+      <c r="H10" s="570" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="573" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="497"/>
+    </row>
+    <row r="11" spans="2:10" ht="98.25" customHeight="1" collapsed="1" thickBot="1">
+      <c r="B11" s="569" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C11" s="570" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D11" s="582" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E11" s="570" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F11" s="570" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G11" s="580" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H11" s="570" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I11" s="573" t="s">
+        <v>1952</v>
+      </c>
+      <c r="J11" s="558"/>
+    </row>
+    <row r="12" spans="2:10" ht="98.25" customHeight="1" thickBot="1">
+      <c r="B12" s="569" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C12" s="570" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D12" s="582" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E12" s="570" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F12" s="570" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G12" s="580" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H12" s="570" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I12" s="573" t="s">
+        <v>1954</v>
+      </c>
+      <c r="J12" s="559"/>
+    </row>
+    <row r="13" spans="2:10" ht="98.25" customHeight="1" thickBot="1">
+      <c r="B13" s="569" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C13" s="570" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D13" s="582" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E13" s="570" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F13" s="570" t="s">
+        <v>496</v>
+      </c>
+      <c r="G13" s="580" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" s="570" t="s">
+        <v>496</v>
+      </c>
+      <c r="I13" s="573" t="s">
+        <v>496</v>
+      </c>
+      <c r="J13" s="559"/>
+    </row>
+    <row r="14" spans="2:10" ht="98.25" customHeight="1" collapsed="1" thickBot="1">
+      <c r="B14" s="577" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C14" s="578" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D14" s="583" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E14" s="578" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F14" s="578" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G14" s="581" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H14" s="578" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I14" s="579" t="s">
+        <v>1956</v>
+      </c>
+      <c r="J14" s="558"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF596A5C-558F-454E-B716-9DFE8C108629}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -28670,7 +30871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B49C6C-D82D-4721-BCB2-CDFB1A07BE11}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -36314,7 +38515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED891A65-D3F4-4D7F-8821-6DB681163119}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -36333,32 +38534,32 @@
   <sheetData>
     <row r="1" spans="2:25" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="2:25" s="344" customFormat="1" ht="45" customHeight="1">
-      <c r="B2" s="516" t="s">
+      <c r="B2" s="536" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
-      <c r="K2" s="516"/>
-      <c r="L2" s="516"/>
-      <c r="M2" s="516"/>
-      <c r="N2" s="516"/>
-      <c r="O2" s="516"/>
-      <c r="P2" s="516"/>
-      <c r="Q2" s="516"/>
-      <c r="R2" s="516"/>
-      <c r="S2" s="516"/>
-      <c r="T2" s="516"/>
-      <c r="U2" s="516"/>
-      <c r="V2" s="516"/>
-      <c r="W2" s="516"/>
-      <c r="X2" s="516"/>
-      <c r="Y2" s="516"/>
+      <c r="C2" s="536"/>
+      <c r="D2" s="536"/>
+      <c r="E2" s="536"/>
+      <c r="F2" s="536"/>
+      <c r="G2" s="536"/>
+      <c r="H2" s="536"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="536"/>
+      <c r="K2" s="536"/>
+      <c r="L2" s="536"/>
+      <c r="M2" s="536"/>
+      <c r="N2" s="536"/>
+      <c r="O2" s="536"/>
+      <c r="P2" s="536"/>
+      <c r="Q2" s="536"/>
+      <c r="R2" s="536"/>
+      <c r="S2" s="536"/>
+      <c r="T2" s="536"/>
+      <c r="U2" s="536"/>
+      <c r="V2" s="536"/>
+      <c r="W2" s="536"/>
+      <c r="X2" s="536"/>
+      <c r="Y2" s="536"/>
     </row>
     <row r="3" spans="2:25" ht="45" customHeight="1">
       <c r="B3" s="345" t="str" cm="1">
@@ -36539,32 +38740,32 @@
       <c r="Y4" s="442"/>
     </row>
     <row r="5" spans="2:25" s="344" customFormat="1" ht="45" customHeight="1">
-      <c r="B5" s="516" t="s">
+      <c r="B5" s="536" t="s">
         <v>556</v>
       </c>
-      <c r="C5" s="516"/>
-      <c r="D5" s="516"/>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="516"/>
-      <c r="J5" s="516"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="516"/>
-      <c r="M5" s="516"/>
-      <c r="N5" s="516"/>
-      <c r="O5" s="516"/>
-      <c r="P5" s="516"/>
-      <c r="Q5" s="516"/>
-      <c r="R5" s="516"/>
-      <c r="S5" s="516"/>
-      <c r="T5" s="516"/>
-      <c r="U5" s="516"/>
-      <c r="V5" s="516"/>
-      <c r="W5" s="516"/>
-      <c r="X5" s="516"/>
-      <c r="Y5" s="516"/>
+      <c r="C5" s="536"/>
+      <c r="D5" s="536"/>
+      <c r="E5" s="536"/>
+      <c r="F5" s="536"/>
+      <c r="G5" s="536"/>
+      <c r="H5" s="536"/>
+      <c r="I5" s="536"/>
+      <c r="J5" s="536"/>
+      <c r="K5" s="536"/>
+      <c r="L5" s="536"/>
+      <c r="M5" s="536"/>
+      <c r="N5" s="536"/>
+      <c r="O5" s="536"/>
+      <c r="P5" s="536"/>
+      <c r="Q5" s="536"/>
+      <c r="R5" s="536"/>
+      <c r="S5" s="536"/>
+      <c r="T5" s="536"/>
+      <c r="U5" s="536"/>
+      <c r="V5" s="536"/>
+      <c r="W5" s="536"/>
+      <c r="X5" s="536"/>
+      <c r="Y5" s="536"/>
     </row>
     <row r="6" spans="2:25" ht="45" customHeight="1">
       <c r="B6" s="345" t="str" cm="1">
@@ -36945,7 +39146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF12CE0-E9A9-48F4-BCEA-540962F85F28}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -37023,66 +39224,66 @@
     </row>
     <row r="2" spans="1:72" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="115"/>
-      <c r="B2" s="520" t="s">
+      <c r="B2" s="543" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="521"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="520" t="s">
+      <c r="C2" s="544"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="543" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="521"/>
-      <c r="G2" s="522"/>
-      <c r="H2" s="523" t="s">
+      <c r="F2" s="544"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="550" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="524"/>
-      <c r="J2" s="525"/>
-      <c r="K2" s="523" t="s">
+      <c r="I2" s="551"/>
+      <c r="J2" s="552"/>
+      <c r="K2" s="550" t="s">
         <v>304</v>
       </c>
-      <c r="L2" s="524"/>
-      <c r="M2" s="525"/>
-      <c r="N2" s="526">
+      <c r="L2" s="551"/>
+      <c r="M2" s="552"/>
+      <c r="N2" s="553">
         <v>0.05</v>
       </c>
-      <c r="O2" s="527"/>
-      <c r="P2" s="528"/>
-      <c r="Q2" s="523" t="s">
+      <c r="O2" s="554"/>
+      <c r="P2" s="555"/>
+      <c r="Q2" s="550" t="s">
         <v>305</v>
       </c>
-      <c r="R2" s="524"/>
-      <c r="S2" s="525"/>
-      <c r="T2" s="523" t="s">
+      <c r="R2" s="551"/>
+      <c r="S2" s="552"/>
+      <c r="T2" s="550" t="s">
         <v>306</v>
       </c>
-      <c r="U2" s="524"/>
-      <c r="V2" s="525"/>
-      <c r="W2" s="529" t="s">
+      <c r="U2" s="551"/>
+      <c r="V2" s="552"/>
+      <c r="W2" s="537" t="s">
         <v>307</v>
       </c>
-      <c r="X2" s="530"/>
-      <c r="Y2" s="531"/>
-      <c r="Z2" s="529" t="s">
+      <c r="X2" s="538"/>
+      <c r="Y2" s="539"/>
+      <c r="Z2" s="537" t="s">
         <v>308</v>
       </c>
-      <c r="AA2" s="530"/>
-      <c r="AB2" s="531"/>
-      <c r="AC2" s="529" t="s">
+      <c r="AA2" s="538"/>
+      <c r="AB2" s="539"/>
+      <c r="AC2" s="537" t="s">
         <v>309</v>
       </c>
-      <c r="AD2" s="530"/>
-      <c r="AE2" s="531"/>
-      <c r="AF2" s="517" t="s">
+      <c r="AD2" s="538"/>
+      <c r="AE2" s="539"/>
+      <c r="AF2" s="540" t="s">
         <v>310</v>
       </c>
-      <c r="AG2" s="518"/>
-      <c r="AH2" s="519"/>
-      <c r="AI2" s="517" t="s">
+      <c r="AG2" s="541"/>
+      <c r="AH2" s="542"/>
+      <c r="AI2" s="540" t="s">
         <v>311</v>
       </c>
-      <c r="AJ2" s="518"/>
-      <c r="AK2" s="519"/>
+      <c r="AJ2" s="541"/>
+      <c r="AK2" s="542"/>
       <c r="AL2" s="115"/>
       <c r="AM2" s="115"/>
       <c r="AN2" s="115"/>
@@ -37214,43 +39415,43 @@
       <c r="G4" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="532" t="str">
+      <c r="H4" s="546" t="str">
         <f ca="1">BA19</f>
         <v>˪</v>
       </c>
-      <c r="I4" s="533"/>
+      <c r="I4" s="547"/>
       <c r="J4" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="K4" s="532" t="str">
+      <c r="K4" s="546" t="str">
         <f ca="1">AZ19</f>
         <v>ˋ</v>
       </c>
-      <c r="L4" s="533"/>
+      <c r="L4" s="547"/>
       <c r="M4" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="N4" s="534" t="str">
+      <c r="N4" s="548" t="str">
         <f ca="1" xml:space="preserve"> BB19</f>
         <v>˫</v>
       </c>
-      <c r="O4" s="535"/>
+      <c r="O4" s="549"/>
       <c r="P4" s="133" t="s">
         <v>316</v>
       </c>
-      <c r="Q4" s="532" t="str">
+      <c r="Q4" s="546" t="str">
         <f ca="1" xml:space="preserve"> AY19</f>
         <v>ˊ</v>
       </c>
-      <c r="R4" s="533"/>
+      <c r="R4" s="547"/>
       <c r="S4" s="133" t="s">
         <v>317</v>
       </c>
-      <c r="T4" s="532" t="str">
+      <c r="T4" s="546" t="str">
         <f ca="1">BC19</f>
         <v>˙</v>
       </c>
-      <c r="U4" s="533"/>
+      <c r="U4" s="547"/>
       <c r="V4" s="133" t="s">
         <v>318</v>
       </c>
@@ -37348,71 +39549,71 @@
     <row r="5" spans="1:72" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="115"/>
       <c r="B5" s="115"/>
-      <c r="C5" s="520" t="s">
+      <c r="C5" s="543" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="521"/>
-      <c r="E5" s="522"/>
-      <c r="F5" s="520" t="s">
+      <c r="D5" s="544"/>
+      <c r="E5" s="545"/>
+      <c r="F5" s="543" t="s">
         <v>320</v>
       </c>
-      <c r="G5" s="521"/>
-      <c r="H5" s="522"/>
-      <c r="I5" s="520" t="s">
+      <c r="G5" s="544"/>
+      <c r="H5" s="545"/>
+      <c r="I5" s="543" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="521"/>
-      <c r="K5" s="522"/>
-      <c r="L5" s="520" t="s">
+      <c r="J5" s="544"/>
+      <c r="K5" s="545"/>
+      <c r="L5" s="543" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="521"/>
-      <c r="N5" s="522"/>
-      <c r="O5" s="520" t="s">
+      <c r="M5" s="544"/>
+      <c r="N5" s="545"/>
+      <c r="O5" s="543" t="s">
         <v>269</v>
       </c>
-      <c r="P5" s="521"/>
-      <c r="Q5" s="522"/>
-      <c r="R5" s="520" t="s">
+      <c r="P5" s="544"/>
+      <c r="Q5" s="545"/>
+      <c r="R5" s="543" t="s">
         <v>278</v>
       </c>
-      <c r="S5" s="521"/>
-      <c r="T5" s="522"/>
-      <c r="U5" s="529" t="s">
+      <c r="S5" s="544"/>
+      <c r="T5" s="545"/>
+      <c r="U5" s="537" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="530"/>
-      <c r="W5" s="531"/>
-      <c r="X5" s="529" t="s">
+      <c r="V5" s="538"/>
+      <c r="W5" s="539"/>
+      <c r="X5" s="537" t="s">
         <v>205</v>
       </c>
-      <c r="Y5" s="530"/>
-      <c r="Z5" s="531"/>
-      <c r="AA5" s="529" t="s">
+      <c r="Y5" s="538"/>
+      <c r="Z5" s="539"/>
+      <c r="AA5" s="537" t="s">
         <v>201</v>
       </c>
-      <c r="AB5" s="530"/>
-      <c r="AC5" s="531"/>
-      <c r="AD5" s="529" t="s">
+      <c r="AB5" s="538"/>
+      <c r="AC5" s="539"/>
+      <c r="AD5" s="537" t="s">
         <v>267</v>
       </c>
-      <c r="AE5" s="530"/>
-      <c r="AF5" s="531"/>
-      <c r="AG5" s="529" t="s">
+      <c r="AE5" s="538"/>
+      <c r="AF5" s="539"/>
+      <c r="AG5" s="537" t="s">
         <v>322</v>
       </c>
-      <c r="AH5" s="530"/>
-      <c r="AI5" s="531"/>
-      <c r="AJ5" s="529" t="s">
+      <c r="AH5" s="538"/>
+      <c r="AI5" s="539"/>
+      <c r="AJ5" s="537" t="s">
         <v>323</v>
       </c>
-      <c r="AK5" s="530"/>
-      <c r="AL5" s="531"/>
-      <c r="AM5" s="517" t="s">
+      <c r="AK5" s="538"/>
+      <c r="AL5" s="539"/>
+      <c r="AM5" s="540" t="s">
         <v>324</v>
       </c>
-      <c r="AN5" s="518"/>
-      <c r="AO5" s="519"/>
+      <c r="AN5" s="541"/>
+      <c r="AO5" s="542"/>
       <c r="AP5" s="115"/>
       <c r="AQ5" s="115"/>
       <c r="AR5" s="116"/>
@@ -37715,61 +39916,61 @@
       <c r="A8" s="115"/>
       <c r="B8" s="115"/>
       <c r="C8" s="139"/>
-      <c r="D8" s="520" t="s">
+      <c r="D8" s="543" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="521"/>
-      <c r="F8" s="522"/>
-      <c r="G8" s="520" t="s">
+      <c r="E8" s="544"/>
+      <c r="F8" s="545"/>
+      <c r="G8" s="543" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="521"/>
-      <c r="I8" s="522"/>
-      <c r="J8" s="520" t="s">
+      <c r="H8" s="544"/>
+      <c r="I8" s="545"/>
+      <c r="J8" s="543" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="521"/>
-      <c r="L8" s="522"/>
-      <c r="M8" s="520" t="s">
+      <c r="K8" s="544"/>
+      <c r="L8" s="545"/>
+      <c r="M8" s="543" t="s">
         <v>325</v>
       </c>
-      <c r="N8" s="521"/>
-      <c r="O8" s="522"/>
-      <c r="P8" s="520" t="s">
+      <c r="N8" s="544"/>
+      <c r="O8" s="545"/>
+      <c r="P8" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="521"/>
-      <c r="R8" s="522"/>
-      <c r="S8" s="520" t="s">
+      <c r="Q8" s="544"/>
+      <c r="R8" s="545"/>
+      <c r="S8" s="543" t="s">
         <v>280</v>
       </c>
-      <c r="T8" s="521"/>
-      <c r="U8" s="522"/>
-      <c r="V8" s="529" t="s">
+      <c r="T8" s="544"/>
+      <c r="U8" s="545"/>
+      <c r="V8" s="537" t="s">
         <v>192</v>
       </c>
-      <c r="W8" s="530"/>
-      <c r="X8" s="531"/>
-      <c r="Y8" s="529" t="s">
+      <c r="W8" s="538"/>
+      <c r="X8" s="539"/>
+      <c r="Y8" s="537" t="s">
         <v>273</v>
       </c>
-      <c r="Z8" s="530"/>
-      <c r="AA8" s="531"/>
-      <c r="AB8" s="529" t="s">
+      <c r="Z8" s="538"/>
+      <c r="AA8" s="539"/>
+      <c r="AB8" s="537" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" s="530"/>
-      <c r="AD8" s="531"/>
-      <c r="AE8" s="529" t="s">
+      <c r="AC8" s="538"/>
+      <c r="AD8" s="539"/>
+      <c r="AE8" s="537" t="s">
         <v>326</v>
       </c>
-      <c r="AF8" s="530"/>
-      <c r="AG8" s="531"/>
-      <c r="AH8" s="517" t="s">
+      <c r="AF8" s="538"/>
+      <c r="AG8" s="539"/>
+      <c r="AH8" s="540" t="s">
         <v>327</v>
       </c>
-      <c r="AI8" s="518"/>
-      <c r="AJ8" s="519"/>
+      <c r="AI8" s="541"/>
+      <c r="AJ8" s="542"/>
       <c r="AK8" s="115"/>
       <c r="AL8" s="115"/>
       <c r="AM8" s="115"/>
@@ -38077,56 +40278,56 @@
       <c r="B11" s="115"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
-      <c r="E11" s="520" t="s">
+      <c r="E11" s="543" t="s">
         <v>279</v>
       </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" s="520" t="s">
+      <c r="F11" s="544"/>
+      <c r="G11" s="545"/>
+      <c r="H11" s="543" t="s">
         <v>328</v>
       </c>
-      <c r="I11" s="521"/>
-      <c r="J11" s="522"/>
-      <c r="K11" s="520" t="s">
+      <c r="I11" s="544"/>
+      <c r="J11" s="545"/>
+      <c r="K11" s="543" t="s">
         <v>281</v>
       </c>
-      <c r="L11" s="521"/>
-      <c r="M11" s="522"/>
-      <c r="N11" s="520" t="s">
+      <c r="L11" s="544"/>
+      <c r="M11" s="545"/>
+      <c r="N11" s="543" t="s">
         <v>329</v>
       </c>
-      <c r="O11" s="521"/>
-      <c r="P11" s="522"/>
-      <c r="Q11" s="520" t="s">
+      <c r="O11" s="544"/>
+      <c r="P11" s="545"/>
+      <c r="Q11" s="543" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="521"/>
-      <c r="S11" s="522"/>
-      <c r="T11" s="520" t="s">
+      <c r="R11" s="544"/>
+      <c r="S11" s="545"/>
+      <c r="T11" s="543" t="s">
         <v>330</v>
       </c>
-      <c r="U11" s="521"/>
-      <c r="V11" s="522"/>
-      <c r="W11" s="529" t="s">
+      <c r="U11" s="544"/>
+      <c r="V11" s="545"/>
+      <c r="W11" s="537" t="s">
         <v>298</v>
       </c>
-      <c r="X11" s="530"/>
-      <c r="Y11" s="531"/>
-      <c r="Z11" s="529" t="s">
+      <c r="X11" s="538"/>
+      <c r="Y11" s="539"/>
+      <c r="Z11" s="537" t="s">
         <v>331</v>
       </c>
-      <c r="AA11" s="530"/>
-      <c r="AB11" s="531"/>
-      <c r="AC11" s="529" t="s">
+      <c r="AA11" s="538"/>
+      <c r="AB11" s="539"/>
+      <c r="AC11" s="537" t="s">
         <v>332</v>
       </c>
-      <c r="AD11" s="530"/>
-      <c r="AE11" s="531"/>
-      <c r="AF11" s="517" t="s">
+      <c r="AD11" s="538"/>
+      <c r="AE11" s="539"/>
+      <c r="AF11" s="540" t="s">
         <v>333</v>
       </c>
-      <c r="AG11" s="518"/>
-      <c r="AH11" s="519"/>
+      <c r="AG11" s="541"/>
+      <c r="AH11" s="542"/>
       <c r="AI11" s="115"/>
       <c r="AJ11" s="115"/>
       <c r="AK11" s="115"/>
@@ -43991,17 +46192,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="AJ5:AL5"/>
@@ -44018,37 +46232,24 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12F8DF7-0EBD-437E-907C-2FBB462BC4AB}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -45886,7 +48087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB7E097-2730-479E-9E06-2D6673D1FF09}">
   <dimension ref="B2:H62"/>
   <sheetViews>
@@ -46586,7 +48787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E48D2B9-B889-499C-944F-FEB18A9197BF}">
   <dimension ref="B2:H39"/>
   <sheetViews>
@@ -47396,7 +49597,7 @@
         <f t="array" ref="G37" xml:space="preserve"> INDEX(漢語拼音對照表[[通用拼音 ]], MATCH(TRUE, EXACT(B37,漢語拼音對照表[[注音符號 ]]),0))</f>
         <v xml:space="preserve">yi,-i </v>
       </c>
-      <c r="H37" s="536" t="s">
+      <c r="H37" s="516" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -47420,7 +49621,7 @@
         <f t="array" ref="G38" xml:space="preserve"> INDEX(漢語拼音對照表[[通用拼音 ]], MATCH(TRUE, EXACT(B38,漢語拼音對照表[[注音符號 ]]),0))</f>
         <v xml:space="preserve">wu,-u </v>
       </c>
-      <c r="H38" s="536" t="s">
+      <c r="H38" s="516" t="s">
         <v>1835</v>
       </c>
     </row>
@@ -47444,1434 +49645,8 @@
         <f t="array" ref="G39" xml:space="preserve"> INDEX(漢語拼音對照表[[通用拼音 ]], MATCH(TRUE, EXACT(B39,漢語拼音對照表[[注音符號 ]]),0))</f>
         <v xml:space="preserve">yu </v>
       </c>
-      <c r="H39" s="536" t="s">
+      <c r="H39" s="516" t="s">
         <v>1837</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58003326-053E-43D8-9401-43042FD64276}">
-  <dimension ref="B1:I57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="32.25"/>
-  <cols>
-    <col min="1" max="1" width="2.296875" style="495" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="494" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="496" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" style="496" customWidth="1"/>
-    <col min="5" max="8" width="22.59765625" style="496" customWidth="1"/>
-    <col min="9" max="9" width="30" style="496" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="495"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="15" customHeight="1"/>
-    <row r="2" spans="2:9" s="555" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B2" s="553" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="553" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D2" s="553" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E2" s="554" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F2" s="554" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G2" s="553" t="s">
-        <v>1866</v>
-      </c>
-      <c r="H2" s="553" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I2" s="554" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B3" s="550" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="497" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D3" s="541" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E3" s="497" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="497" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="497" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="497" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="497"/>
-    </row>
-    <row r="4" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B4" s="551" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C4" s="538" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D4" s="542" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E4" s="538" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F4" s="538" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="543" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H4" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B5" s="550" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="497" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D5" s="541" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E5" s="497" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="497" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="497" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="497" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="497"/>
-    </row>
-    <row r="6" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B6" s="550" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="497" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D6" s="541" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E6" s="497" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="497" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="549" t="s">
-        <v>1944</v>
-      </c>
-      <c r="H6" s="497" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="497"/>
-    </row>
-    <row r="7" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B7" s="552" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C7" s="544" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D7" s="546" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E7" s="544" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F7" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="544" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I7" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B8" s="550" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="497" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D8" s="541" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E8" s="497" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F8" s="497" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="497" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H8" s="497" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" s="497"/>
-    </row>
-    <row r="9" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B9" s="550" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="497" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D9" s="541" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E9" s="497" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="497" t="s">
-        <v>348</v>
-      </c>
-      <c r="G9" s="497" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="497" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="497"/>
-    </row>
-    <row r="10" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B10" s="550" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="497" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D10" s="541" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E10" s="497" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="497" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="549" t="s">
-        <v>1945</v>
-      </c>
-      <c r="H10" s="497" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="497"/>
-    </row>
-    <row r="11" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B11" s="550" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="497" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D11" s="541" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E11" s="497" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="497" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="497" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="497" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="497"/>
-    </row>
-    <row r="12" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B12" s="550" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="497" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D12" s="541" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E12" s="497" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="497" t="s">
-        <v>476</v>
-      </c>
-      <c r="G12" s="497" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="497" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" s="497"/>
-    </row>
-    <row r="13" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B13" s="551" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C13" s="538" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D13" s="542" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E13" s="538" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F13" s="538" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="543" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H13" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B14" s="550" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="497" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D14" s="541" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E14" s="497" t="s">
-        <v>476</v>
-      </c>
-      <c r="F14" s="497" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="497" t="s">
-        <v>476</v>
-      </c>
-      <c r="H14" s="497" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="497"/>
-    </row>
-    <row r="15" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B15" s="551" t="s">
-        <v>386</v>
-      </c>
-      <c r="C15" s="538" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D15" s="542" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E15" s="538" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="538" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="549" t="s">
-        <v>1943</v>
-      </c>
-      <c r="H15" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B16" s="550" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="497" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D16" s="541" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E16" s="497" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="497" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="497" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="497" t="s">
-        <v>272</v>
-      </c>
-      <c r="I16" s="497"/>
-    </row>
-    <row r="17" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B17" s="550" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="497" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D17" s="541" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E17" s="497" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F17" s="497" t="s">
-        <v>474</v>
-      </c>
-      <c r="G17" s="497" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H17" s="497" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="497"/>
-    </row>
-    <row r="18" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B18" s="551" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C18" s="538" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D18" s="542" t="s">
-        <v>1863</v>
-      </c>
-      <c r="E18" s="538" t="s">
-        <v>1864</v>
-      </c>
-      <c r="F18" s="538" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="543" t="s">
-        <v>1940</v>
-      </c>
-      <c r="H18" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B19" s="550" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="497" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D19" s="541" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E19" s="497" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F19" s="497" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="497" t="s">
-        <v>1941</v>
-      </c>
-      <c r="H19" s="497" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="497"/>
-    </row>
-    <row r="20" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B20" s="550" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="497" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D20" s="541" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E20" s="497" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F20" s="497" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="497" t="s">
-        <v>1942</v>
-      </c>
-      <c r="H20" s="497" t="s">
-        <v>237</v>
-      </c>
-      <c r="I20" s="497"/>
-    </row>
-    <row r="21" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B21" s="552" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C21" s="544" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D21" s="546" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="544" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="544" t="s">
-        <v>1645</v>
-      </c>
-      <c r="I21" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B22" s="552" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C22" s="544" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D22" s="546" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="544" t="s">
-        <v>1827</v>
-      </c>
-      <c r="F22" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="544" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I22" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B23" s="552" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C23" s="544" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D23" s="546" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="544" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F23" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="544" t="s">
-        <v>1651</v>
-      </c>
-      <c r="I23" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B24" s="552" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C24" s="544" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D24" s="546" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="544" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F24" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="544" t="s">
-        <v>1653</v>
-      </c>
-      <c r="I24" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B25" s="550" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="497" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D25" s="541" t="s">
-        <v>1873</v>
-      </c>
-      <c r="E25" s="497" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F25" s="497" t="s">
-        <v>474</v>
-      </c>
-      <c r="G25" s="497" t="s">
-        <v>1602</v>
-      </c>
-      <c r="H25" s="497" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="497"/>
-    </row>
-    <row r="26" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B26" s="551" t="s">
-        <v>276</v>
-      </c>
-      <c r="C26" s="537" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D26" s="547" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E26" s="538" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F26" s="538" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="543" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H26" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B27" s="550" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="497" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D27" s="541" t="s">
-        <v>1875</v>
-      </c>
-      <c r="E27" s="497" t="s">
-        <v>1878</v>
-      </c>
-      <c r="F27" s="497" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="497" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H27" s="497" t="s">
-        <v>223</v>
-      </c>
-      <c r="I27" s="497"/>
-    </row>
-    <row r="28" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B28" s="550" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="497" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D28" s="541" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E28" s="497" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="497" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="497" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="497" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="497"/>
-    </row>
-    <row r="29" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B29" s="550" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="497" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D29" s="541" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E29" s="497" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="497" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="497" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="497" t="s">
-        <v>247</v>
-      </c>
-      <c r="I29" s="497"/>
-    </row>
-    <row r="30" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B30" s="551" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C30" s="537" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D30" s="542" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E30" s="538" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="538" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="543" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H30" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B31" s="550" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" s="497" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D31" s="541" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E31" s="497" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="497" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="497" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="497" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="497"/>
-    </row>
-    <row r="32" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B32" s="551" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C32" s="537" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D32" s="542" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E32" s="538" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F32" s="538" t="s">
-        <v>1910</v>
-      </c>
-      <c r="G32" s="543" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H32" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B33" s="550" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="497" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D33" s="541" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E33" s="497" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F33" s="497" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="497" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="497" t="s">
-        <v>234</v>
-      </c>
-      <c r="I33" s="497"/>
-    </row>
-    <row r="34" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B34" s="552" t="s">
-        <v>376</v>
-      </c>
-      <c r="C34" s="544" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D34" s="546" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E34" s="544" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="545"/>
-      <c r="G34" s="545"/>
-      <c r="H34" s="544" t="s">
-        <v>234</v>
-      </c>
-      <c r="I34" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B35" s="550" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C35" s="497" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D35" s="541" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E35" s="497" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="497" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="497" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="497" t="s">
-        <v>234</v>
-      </c>
-      <c r="I35" s="497"/>
-    </row>
-    <row r="36" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B36" s="551" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C36" s="537" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D36" s="542" t="s">
-        <v>1911</v>
-      </c>
-      <c r="E36" s="538" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="538" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="543" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H36" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B37" s="550" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="497" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D37" s="541" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E37" s="497" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="497" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="497" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="497" t="s">
-        <v>235</v>
-      </c>
-      <c r="I37" s="497"/>
-    </row>
-    <row r="38" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B38" s="551" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C38" s="537" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D38" s="542" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E38" s="538" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="538" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="543" t="s">
-        <v>1913</v>
-      </c>
-      <c r="H38" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B39" s="552" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C39" s="544" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D39" s="546" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E39" s="544" t="s">
-        <v>513</v>
-      </c>
-      <c r="F39" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="544" t="s">
-        <v>1664</v>
-      </c>
-      <c r="I39" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B40" s="550" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="497" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D40" s="541" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E40" s="497" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="497" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="497" t="s">
-        <v>1625</v>
-      </c>
-      <c r="H40" s="497" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I40" s="497"/>
-    </row>
-    <row r="41" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B41" s="551" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C41" s="537" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D41" s="542" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E41" s="538" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="538" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="543" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H41" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B42" s="552" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C42" s="544" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D42" s="546" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E42" s="544" t="s">
-        <v>510</v>
-      </c>
-      <c r="F42" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="544" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I42" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B43" s="550" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="497" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D43" s="541" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E43" s="497" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="497" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="497" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="497" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" s="497"/>
-    </row>
-    <row r="44" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B44" s="550" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="497" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D44" s="541" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E44" s="497" t="s">
-        <v>523</v>
-      </c>
-      <c r="F44" s="497" t="s">
-        <v>523</v>
-      </c>
-      <c r="G44" s="497" t="s">
-        <v>523</v>
-      </c>
-      <c r="H44" s="497" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I44" s="497"/>
-    </row>
-    <row r="45" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B45" s="550" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="497" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D45" s="541" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E45" s="497" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="497" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" s="497" t="s">
-        <v>96</v>
-      </c>
-      <c r="H45" s="497" t="s">
-        <v>150</v>
-      </c>
-      <c r="I45" s="497"/>
-    </row>
-    <row r="46" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B46" s="550" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="497" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D46" s="541" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E46" s="497" t="s">
-        <v>1829</v>
-      </c>
-      <c r="F46" s="497" t="s">
-        <v>1829</v>
-      </c>
-      <c r="G46" s="497" t="s">
-        <v>1829</v>
-      </c>
-      <c r="H46" s="497" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I46" s="497"/>
-    </row>
-    <row r="47" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B47" s="552" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C47" s="544" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D47" s="546" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E47" s="544" t="s">
-        <v>507</v>
-      </c>
-      <c r="F47" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="545" t="s">
-        <v>1500</v>
-      </c>
-      <c r="H47" s="544" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I47" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B48" s="550" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="497" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D48" s="541" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E48" s="497" t="s">
-        <v>1930</v>
-      </c>
-      <c r="F48" s="497" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="549" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H48" s="497" t="s">
-        <v>1833</v>
-      </c>
-      <c r="I48" s="536" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B49" s="551" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C49" s="537" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D49" s="542" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E49" s="538" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="538" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="543" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H49" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B50" s="550" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="497" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D50" s="541" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E50" s="548" t="s">
-        <v>1934</v>
-      </c>
-      <c r="F50" s="497" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="497" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="497" t="s">
-        <v>1836</v>
-      </c>
-      <c r="I50" s="536" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B51" s="551" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C51" s="537" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D51" s="542" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E51" s="543" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F51" s="538" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="543" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H51" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="539" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B52" s="552" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C52" s="544" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D52" s="546" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E52" s="544" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F52" s="545" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="545"/>
-      <c r="H52" s="544" t="s">
-        <v>1838</v>
-      </c>
-      <c r="I52" s="544" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B53" s="551" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C53" s="537" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D53" s="542" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E53" s="543" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="538" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="543" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" s="539" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B54" s="551" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C54" s="537" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D54" s="542" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E54" s="543" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="538" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="543" t="s">
-        <v>126</v>
-      </c>
-      <c r="H54" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="539" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B55" s="551" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C55" s="537" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D55" s="542" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E55" s="543" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="538" t="s">
-        <v>102</v>
-      </c>
-      <c r="G55" s="543" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" s="539" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B56" s="551" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="537" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D56" s="542" t="s">
-        <v>1903</v>
-      </c>
-      <c r="E56" s="543" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="538" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="543" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I56" s="539" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="59.25" thickBot="1">
-      <c r="B57" s="551" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="537" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D57" s="542" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E57" s="543" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="538" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="543" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="543" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" s="539" t="s">
-        <v>1845</v>
       </c>
     </row>
   </sheetData>
